--- a/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_120__Reeval_Halton_Modell_1.2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_1.2_KS_Holdout_seed_999/metrics/Trial_120__Reeval_Halton_Modell_1.2.xlsx
@@ -5987,10 +5987,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>97.75621032714844</c:v>
+                  <c:v>97.75620269775391</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.7373568415641785</c:v>
+                  <c:v>-0.7373451590538025</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>72.65258026123047</c:v>
@@ -5999,16 +5999,16 @@
                   <c:v>-0.1149923801422119</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91.95674896240234</c:v>
+                  <c:v>91.95674133300781</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.78253936767578</c:v>
+                  <c:v>91.78254699707031</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>98.22104644775391</c:v>
+                  <c:v>98.22103881835938</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.1429118067026138</c:v>
+                  <c:v>-0.1429176777601242</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>4.723018169403076</c:v>
@@ -6017,82 +6017,82 @@
                   <c:v>99.35702514648438</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>98.90802001953125</c:v>
+                  <c:v>98.90799713134766</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.628573417663574</c:v>
+                  <c:v>6.628561496734619</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>98.11206817626953</c:v>
+                  <c:v>98.112060546875</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>100.2843322753906</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1476286053657532</c:v>
+                  <c:v>0.1476344615221024</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.249426856637001</c:v>
+                  <c:v>0.2494092583656311</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>79.37394714355469</c:v>
+                  <c:v>79.37395477294922</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.346326470375061</c:v>
+                  <c:v>-0.3463440537452698</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.54908275604248</c:v>
+                  <c:v>8.549071311950684</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>6.684864044189453</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62.50492477416992</c:v>
+                  <c:v>62.50493240356445</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>2.280493497848511</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100.2094192504883</c:v>
+                  <c:v>100.2094039916992</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.011732578277588</c:v>
+                  <c:v>4.011726856231689</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.48443603515625</c:v>
+                  <c:v>2.484441995620728</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>55.30126190185547</c:v>
+                  <c:v>55.30125045776367</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75.58613586425781</c:v>
+                  <c:v>75.58612060546875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.07026497274637222</c:v>
+                  <c:v>-0.07027670741081238</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>94.93989562988281</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>82.78787231445312</c:v>
+                  <c:v>82.78787994384766</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18.59033203125</c:v>
+                  <c:v>18.5903263092041</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46.66171264648438</c:v>
+                  <c:v>46.66168594360352</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.02363676764070988</c:v>
+                  <c:v>-0.02364263497292995</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.2155117094516754</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>65.22589111328125</c:v>
+                  <c:v>65.22589874267578</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.06990710645914078</c:v>
+                  <c:v>-0.06992470473051071</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>79.64265441894531</c:v>
@@ -6113,19 +6113,19 @@
                   <c:v>99.65923309326172</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>87.52759552001953</c:v>
+                  <c:v>87.527587890625</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>21.14204216003418</c:v>
+                  <c:v>21.14204788208008</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>69.13565826416016</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>99.03816223144531</c:v>
+                  <c:v>99.03815460205078</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>68.68907165527344</c:v>
+                  <c:v>68.68906402587891</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>1.521781921386719</c:v>
@@ -6134,40 +6134,40 @@
                   <c:v>76.21158599853516</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>98.03860473632812</c:v>
+                  <c:v>98.03861999511719</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>20.96929740905762</c:v>
+                  <c:v>20.96929168701172</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>-0.3861141502857208</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.913833141326904</c:v>
+                  <c:v>1.913838982582092</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.1651229709386826</c:v>
+                  <c:v>0.1651171147823334</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>99.25229644775391</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>70.99748992919922</c:v>
+                  <c:v>70.99749755859375</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>44.50176239013672</c:v>
+                  <c:v>44.50174331665039</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>8.822732925415039</c:v>
+                  <c:v>8.822738647460938</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>97.81012725830078</c:v>
+                  <c:v>97.81011199951172</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.02155410498380661</c:v>
+                  <c:v>0.02154823765158653</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>81.42366027832031</c:v>
+                  <c:v>81.42365264892578</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>-0.06030338630080223</c:v>
@@ -6182,40 +6182,40 @@
                   <c:v>63.29121398925781</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-0.3652171194553375</c:v>
+                  <c:v>-0.3652229607105255</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>97.40554809570312</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>66.98958587646484</c:v>
+                  <c:v>66.98959350585938</c:v>
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>-0.2654135227203369</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.687327265739441</c:v>
+                  <c:v>1.687309741973877</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>101.259162902832</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>99.36338806152344</c:v>
+                  <c:v>99.3634033203125</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>95.15938568115234</c:v>
+                  <c:v>95.15939331054688</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>102.2170944213867</c:v>
+                  <c:v>102.2170867919922</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>-0.07711722701787949</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>66.11927032470703</c:v>
+                  <c:v>66.11927795410156</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>79.54183959960938</c:v>
+                  <c:v>79.54185485839844</c:v>
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>100.4090576171875</c:v>
@@ -6224,7 +6224,7 @@
                   <c:v>74.29518127441406</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.07865429669618607</c:v>
+                  <c:v>0.07864256203174591</c:v>
                 </c:pt>
                 <c:pt idx="80">
                   <c:v>104.3999176025391</c:v>
@@ -6233,7 +6233,7 @@
                   <c:v>94.58131408691406</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-0.3417504727840424</c:v>
+                  <c:v>-0.3417680859565735</c:v>
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>87.55902862548828</c:v>
@@ -6245,19 +6245,19 @@
                   <c:v>95.41783905029297</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.6402519345283508</c:v>
+                  <c:v>0.6402577757835388</c:v>
                 </c:pt>
                 <c:pt idx="87">
                   <c:v>0.09519240260124207</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>91.76075744628906</c:v>
+                  <c:v>91.76074981689453</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>74.83905792236328</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>-0.009556787088513374</c:v>
+                  <c:v>-0.009545053355395794</c:v>
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>57.09466934204102</c:v>
@@ -6278,7 +6278,7 @@
                   <c:v>98.67454528808594</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.6765900254249573</c:v>
+                  <c:v>0.6765841245651245</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>75.31825256347656</c:v>
@@ -6979,7 +6979,7 @@
         <v>96.2991</v>
       </c>
       <c r="F2">
-        <v>97.75621032714844</v>
+        <v>97.75620269775391</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -7011,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>-0.7373568415641785</v>
+        <v>-0.7373451590538025</v>
       </c>
       <c r="G3">
         <v>106</v>
@@ -7107,7 +7107,7 @@
         <v>96.7841</v>
       </c>
       <c r="F6">
-        <v>91.95674896240234</v>
+        <v>91.95674133300781</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7139,7 +7139,7 @@
         <v>96.0889</v>
       </c>
       <c r="F7">
-        <v>91.78253936767578</v>
+        <v>91.78254699707031</v>
       </c>
       <c r="G7">
         <v>106</v>
@@ -7171,7 +7171,7 @@
         <v>97.5325</v>
       </c>
       <c r="F8">
-        <v>98.22104644775391</v>
+        <v>98.22103881835938</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -7191,7 +7191,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>-0.1429118067026138</v>
+        <v>-0.1429176777601242</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -7251,7 +7251,7 @@
         <v>93.5943</v>
       </c>
       <c r="F12">
-        <v>98.90802001953125</v>
+        <v>98.90799713134766</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>6.628573417663574</v>
+        <v>6.628561496734619</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -7291,7 +7291,7 @@
         <v>97.7777</v>
       </c>
       <c r="F14">
-        <v>98.11206817626953</v>
+        <v>98.112060546875</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7331,7 +7331,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.1476286053657532</v>
+        <v>0.1476344615221024</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -7351,7 +7351,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.249426856637001</v>
+        <v>0.2494092583656311</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7371,7 +7371,7 @@
         <v>75.7182</v>
       </c>
       <c r="F18">
-        <v>79.37394714355469</v>
+        <v>79.37395477294922</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7391,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>-0.346326470375061</v>
+        <v>-0.3463440537452698</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7411,7 +7411,7 @@
         <v>70.7677</v>
       </c>
       <c r="F20">
-        <v>8.54908275604248</v>
+        <v>8.549071311950684</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -7451,7 +7451,7 @@
         <v>67.3374</v>
       </c>
       <c r="F22">
-        <v>62.50492477416992</v>
+        <v>62.50493240356445</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7491,7 +7491,7 @@
         <v>94.6263</v>
       </c>
       <c r="F24">
-        <v>100.2094192504883</v>
+        <v>100.2094039916992</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7511,7 +7511,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>4.011732578277588</v>
+        <v>4.011726856231689</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>2.48443603515625</v>
+        <v>2.484441995620728</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -7551,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>55.30126190185547</v>
+        <v>55.30125045776367</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>55.7988</v>
       </c>
       <c r="F28">
-        <v>75.58613586425781</v>
+        <v>75.58612060546875</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>-0.07026497274637222</v>
+        <v>-0.07027670741081238</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>94.28400000000001</v>
       </c>
       <c r="F31">
-        <v>82.78787231445312</v>
+        <v>82.78787994384766</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>86.7184</v>
       </c>
       <c r="F32">
-        <v>18.59033203125</v>
+        <v>18.5903263092041</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7671,7 +7671,7 @@
         <v>24.6551</v>
       </c>
       <c r="F33">
-        <v>46.66171264648438</v>
+        <v>46.66168594360352</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -7691,7 +7691,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>-0.02363676764070988</v>
+        <v>-0.02364263497292995</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>94.44029999999999</v>
       </c>
       <c r="F36">
-        <v>65.22589111328125</v>
+        <v>65.22589874267578</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>-0.06990710645914078</v>
+        <v>-0.06992470473051071</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7891,7 +7891,7 @@
         <v>92.40940000000001</v>
       </c>
       <c r="F44">
-        <v>87.52759552001953</v>
+        <v>87.527587890625</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -7911,7 +7911,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>21.14204216003418</v>
+        <v>21.14204788208008</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -7951,7 +7951,7 @@
         <v>92.2792</v>
       </c>
       <c r="F47">
-        <v>99.03816223144531</v>
+        <v>99.03815460205078</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>95.2355</v>
       </c>
       <c r="F48">
-        <v>68.68907165527344</v>
+        <v>68.68906402587891</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>97.8107</v>
       </c>
       <c r="F51">
-        <v>98.03860473632812</v>
+        <v>98.03861999511719</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>52.4695</v>
       </c>
       <c r="F52">
-        <v>20.96929740905762</v>
+        <v>20.96929168701172</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8091,7 +8091,7 @@
         <v>55.2559</v>
       </c>
       <c r="F54">
-        <v>1.913833141326904</v>
+        <v>1.913838982582092</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.1651229709386826</v>
+        <v>0.1651171147823334</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8151,7 +8151,7 @@
         <v>58.6329</v>
       </c>
       <c r="F57">
-        <v>70.99748992919922</v>
+        <v>70.99749755859375</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>27.5735</v>
       </c>
       <c r="F58">
-        <v>44.50176239013672</v>
+        <v>44.50174331665039</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>8.822732925415039</v>
+        <v>8.822738647460938</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8211,7 +8211,7 @@
         <v>95.5249</v>
       </c>
       <c r="F60">
-        <v>97.81012725830078</v>
+        <v>97.81011199951172</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -8231,7 +8231,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.02155410498380661</v>
+        <v>0.02154823765158653</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>95.947</v>
       </c>
       <c r="F62">
-        <v>81.42366027832031</v>
+        <v>81.42365264892578</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8351,7 +8351,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>-0.3652171194553375</v>
+        <v>-0.3652229607105255</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>85.733</v>
       </c>
       <c r="F69">
-        <v>66.98958587646484</v>
+        <v>66.98959350585938</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -8431,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.687327265739441</v>
+        <v>1.687309741973877</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -8471,7 +8471,7 @@
         <v>95.1549</v>
       </c>
       <c r="F73">
-        <v>99.36338806152344</v>
+        <v>99.3634033203125</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>95.4374</v>
       </c>
       <c r="F74">
-        <v>95.15938568115234</v>
+        <v>95.15939331054688</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -8511,7 +8511,7 @@
         <v>98.0594</v>
       </c>
       <c r="F75">
-        <v>102.2170944213867</v>
+        <v>102.2170867919922</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>84.64230000000001</v>
       </c>
       <c r="F77">
-        <v>66.11927032470703</v>
+        <v>66.11927795410156</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -8571,7 +8571,7 @@
         <v>64.6464</v>
       </c>
       <c r="F78">
-        <v>79.54183959960938</v>
+        <v>79.54185485839844</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.07865429669618607</v>
+        <v>0.07864256203174591</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -8691,7 +8691,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>-0.3417504727840424</v>
+        <v>-0.3417680859565735</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -8771,7 +8771,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.6402519345283508</v>
+        <v>0.6402577757835388</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>93.3051</v>
       </c>
       <c r="F90">
-        <v>91.76075744628906</v>
+        <v>91.76074981689453</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>-0.009556787088513374</v>
+        <v>-0.009545053355395794</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -8991,7 +8991,7 @@
         <v>13.7923</v>
       </c>
       <c r="F99">
-        <v>0.6765900254249573</v>
+        <v>0.6765841245651245</v>
       </c>
     </row>
     <row r="100" spans="1:6">
